--- a/output.xlsx
+++ b/output.xlsx
@@ -591,7 +591,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -656,8 +656,10 @@
         <v>0.381</v>
       </c>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>14</v>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -721,8 +723,10 @@
         <v>0.381</v>
       </c>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>8</v>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -786,8 +790,10 @@
         <v>0.381</v>
       </c>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>6</v>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -851,8 +857,10 @@
         <v>0.381</v>
       </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>3</v>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -914,7 +922,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -971,7 +979,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1034,8 +1042,10 @@
         <v>0.0405</v>
       </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>3745</v>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1099,8 +1109,10 @@
         <v>0.0405</v>
       </c>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>1084</v>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S10" t="n">
         <v>3</v>
@@ -1162,7 +1174,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1227,8 +1239,10 @@
         <v>0.4064</v>
       </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="n">
-        <v>83</v>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1292,8 +1306,10 @@
         <v>0.4064</v>
       </c>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="n">
-        <v>80</v>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1357,8 +1373,10 @@
         <v>0.4064</v>
       </c>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>68</v>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1422,8 +1440,10 @@
         <v>0.4064</v>
       </c>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>62</v>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1487,8 +1507,10 @@
         <v>0.4064</v>
       </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="n">
-        <v>49</v>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1550,7 +1572,7 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S17" t="n">
@@ -1615,8 +1637,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="n">
-        <v>33</v>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1680,8 +1704,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="n">
-        <v>21</v>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1745,8 +1771,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="n">
-        <v>27</v>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -1810,8 +1838,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="n">
-        <v>26</v>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -1875,8 +1905,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="n">
-        <v>25</v>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -1940,8 +1972,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="n">
-        <v>15</v>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2005,8 +2039,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="n">
-        <v>11</v>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2070,8 +2106,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="n">
-        <v>5</v>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2135,8 +2173,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="n">
-        <v>2</v>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2200,8 +2240,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="n">
-        <v>0</v>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2265,8 +2307,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="n">
-        <v>1</v>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2330,8 +2374,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="n">
-        <v>1</v>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2395,8 +2441,10 @@
         <v>0.1518</v>
       </c>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="n">
-        <v>1</v>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2460,8 +2508,10 @@
         <v>0.1574712644</v>
       </c>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="n">
-        <v>1655</v>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>连接超时</t>
+        </is>
       </c>
       <c r="S31" t="n">
         <v>8</v>
@@ -2525,8 +2575,10 @@
         <v>0.1574712644</v>
       </c>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="n">
-        <v>1608</v>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S32" t="n">
         <v>7</v>
@@ -2590,8 +2642,10 @@
         <v>0.1574712644</v>
       </c>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="n">
-        <v>1691</v>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -2655,8 +2709,10 @@
         <v>0.1574712644</v>
       </c>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="n">
-        <v>3507</v>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S34" t="n">
         <v>3</v>
@@ -2720,8 +2776,10 @@
         <v>0.1574712644</v>
       </c>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="n">
-        <v>3076</v>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S35" t="n">
         <v>7</v>
@@ -2785,8 +2843,10 @@
         <v>0.1574712644</v>
       </c>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="n">
-        <v>3058</v>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S36" t="n">
         <v>14</v>
@@ -2850,8 +2910,10 @@
         <v>0.1574712644</v>
       </c>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="n">
-        <v>3083</v>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S37" t="n">
         <v>4</v>
@@ -2915,8 +2977,10 @@
         <v>0.1574712644</v>
       </c>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="n">
-        <v>2759</v>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S38" t="n">
         <v>13</v>
@@ -2980,8 +3044,10 @@
         <v>0.1140229885</v>
       </c>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="n">
-        <v>2874</v>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S39" t="n">
         <v>2</v>
@@ -3045,8 +3111,10 @@
         <v>0.206174559</v>
       </c>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="n">
-        <v>36</v>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3108,7 +3176,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S41" t="n">
@@ -3173,8 +3241,10 @@
         <v>0.1671</v>
       </c>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="n">
-        <v>5</v>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S42" t="inlineStr"/>
     </row>
@@ -3236,7 +3306,11 @@
         <v>0.1671</v>
       </c>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S43" t="n">
         <v>1</v>
       </c>
@@ -3299,8 +3373,10 @@
         <v>0.1671</v>
       </c>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="n">
-        <v>0</v>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S44" t="n">
         <v>1</v>
@@ -3358,7 +3434,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3415,7 +3491,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3472,7 +3548,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3535,8 +3611,10 @@
         <v>0.3351515152</v>
       </c>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="n">
-        <v>708</v>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S48" t="n">
         <v>23</v>
@@ -3594,7 +3672,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3651,7 +3729,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3714,8 +3792,10 @@
         <v>0.2867</v>
       </c>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="n">
-        <v>1498</v>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -3777,7 +3857,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S52" t="n">
@@ -3842,8 +3922,10 @@
         <v>0.3612</v>
       </c>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="n">
-        <v>74</v>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -3907,8 +3989,10 @@
         <v>0.3612</v>
       </c>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="n">
-        <v>50</v>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -3972,8 +4056,10 @@
         <v>0.3078787879</v>
       </c>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="n">
-        <v>11</v>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S55" t="n">
         <v>45</v>
@@ -4031,7 +4117,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -4094,8 +4180,10 @@
         <v>0.2896969697</v>
       </c>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="n">
-        <v>1620</v>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S57" t="n">
         <v>9</v>
@@ -4153,7 +4241,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -4216,7 +4304,11 @@
         <v>0.2715151515</v>
       </c>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S59" t="n">
         <v>4</v>
       </c>
@@ -4279,8 +4371,10 @@
         <v>0.2715151515</v>
       </c>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="n">
-        <v>1637</v>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S60" t="n">
         <v>8</v>
@@ -4344,7 +4438,11 @@
         <v>0.2624242424</v>
       </c>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S61" t="n">
         <v>7</v>
       </c>
@@ -4407,7 +4505,11 @@
         <v>0.2971897607</v>
       </c>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S62" t="n">
         <v>1</v>
       </c>
@@ -4468,7 +4570,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S63" t="n">
@@ -4533,8 +4635,10 @@
         <v>0.1906</v>
       </c>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="n">
-        <v>338</v>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S64" t="n">
         <v>1</v>
@@ -4598,8 +4702,10 @@
         <v>0.1906</v>
       </c>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="n">
-        <v>74</v>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S65" t="n">
         <v>0</v>
@@ -4663,8 +4769,10 @@
         <v>0.1906</v>
       </c>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="n">
-        <v>41</v>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S66" t="n">
         <v>1</v>
@@ -4728,8 +4836,10 @@
         <v>0.1906</v>
       </c>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="n">
-        <v>14</v>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -4787,7 +4897,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4850,8 +4960,10 @@
         <v>0.2807909605</v>
       </c>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="n">
-        <v>553</v>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S69" t="n">
         <v>9</v>
@@ -4915,8 +5027,10 @@
         <v>0.2723163842</v>
       </c>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="n">
-        <v>639</v>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -4974,7 +5088,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -5037,8 +5151,10 @@
         <v>0.376371308</v>
       </c>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="n">
-        <v>449</v>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S72" t="n">
         <v>8</v>
@@ -5096,7 +5212,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -5159,7 +5275,11 @@
         <v>0.2201129944</v>
       </c>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S74" t="n">
         <v>7</v>
       </c>
@@ -5216,7 +5336,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -5279,7 +5399,11 @@
         <v>0.2375362319</v>
       </c>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S76" t="n">
         <v>7</v>
       </c>
@@ -5336,7 +5460,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -5401,7 +5525,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -5464,8 +5588,10 @@
         <v>0.3232067511</v>
       </c>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="n">
-        <v>601</v>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S79" t="n">
         <v>2</v>
@@ -5529,8 +5655,10 @@
         <v>0.3211814346</v>
       </c>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="n">
-        <v>510</v>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S80" t="inlineStr"/>
     </row>
@@ -5592,8 +5720,10 @@
         <v>0.252173913</v>
       </c>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="n">
-        <v>1384</v>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S81" t="n">
         <v>6</v>
@@ -5657,8 +5787,10 @@
         <v>0.1367231638</v>
       </c>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="n">
-        <v>1520</v>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S82" t="n">
         <v>14</v>
@@ -5722,7 +5854,11 @@
         <v>0.2519</v>
       </c>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
@@ -5785,7 +5921,11 @@
         <v>0.322659176</v>
       </c>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S84" t="n">
         <v>0</v>
       </c>
@@ -5848,7 +5988,11 @@
         <v>0.322659176</v>
       </c>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S85" t="n">
         <v>1</v>
       </c>
@@ -5905,7 +6049,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -5972,7 +6116,11 @@
           <t>很容易坏不建议送</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S87" t="n">
         <v>0</v>
       </c>
@@ -6035,7 +6183,11 @@
         <v>0.2014492754</v>
       </c>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S88" t="n">
         <v>4</v>
       </c>
@@ -6096,7 +6248,7 @@
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S89" t="n">
@@ -6161,8 +6313,10 @@
         <v>0.2918</v>
       </c>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="n">
-        <v>1091</v>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S90" t="n">
         <v>4</v>
@@ -6226,8 +6380,10 @@
         <v>0.2918</v>
       </c>
       <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="n">
-        <v>820</v>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S91" t="n">
         <v>5</v>
@@ -6291,8 +6447,10 @@
         <v>0.2918</v>
       </c>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="n">
-        <v>771</v>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S92" t="n">
         <v>5</v>
@@ -6356,8 +6514,10 @@
         <v>0.2751054852</v>
       </c>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="n">
-        <v>837</v>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S93" t="n">
         <v>0</v>
@@ -6421,7 +6581,11 @@
         <v>0.1901449275</v>
       </c>
       <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S94" t="n">
         <v>23</v>
       </c>
@@ -6478,7 +6642,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -6541,7 +6705,11 @@
         <v>0.134057971</v>
       </c>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S96" t="n">
         <v>0</v>
       </c>
@@ -6604,7 +6772,11 @@
         <v>0.2782828283</v>
       </c>
       <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S97" t="n">
         <v>4</v>
       </c>
@@ -6667,7 +6839,11 @@
         <v>0.1653558052</v>
       </c>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S98" t="n">
         <v>1</v>
       </c>
@@ -6730,7 +6906,11 @@
         <v>0.3136</v>
       </c>
       <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
@@ -6791,7 +6971,7 @@
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S100" t="n">
@@ -6856,8 +7036,10 @@
         <v>0.2310861423</v>
       </c>
       <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="n">
-        <v>2181</v>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S101" t="n">
         <v>11</v>
@@ -6915,7 +7097,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S102" t="inlineStr"/>
@@ -6972,7 +7154,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S103" t="inlineStr"/>
@@ -7035,7 +7217,11 @@
         <v>0.3403100775</v>
       </c>
       <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S104" t="n">
         <v>6</v>
       </c>
@@ -7092,7 +7278,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S105" t="inlineStr"/>
@@ -7149,7 +7335,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S106" t="inlineStr"/>
@@ -7206,7 +7392,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S107" t="inlineStr"/>
@@ -7269,8 +7455,10 @@
         <v>0.1668686869</v>
       </c>
       <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="n">
-        <v>527</v>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S108" t="n">
         <v>34</v>
@@ -7334,7 +7522,11 @@
         <v>0.3235</v>
       </c>
       <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S109" t="n">
         <v>0</v>
       </c>
@@ -7397,7 +7589,11 @@
         <v>0.4375</v>
       </c>
       <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S110" t="n">
         <v>3</v>
       </c>
@@ -7460,7 +7656,11 @@
         <v>0.2678</v>
       </c>
       <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S111" t="n">
         <v>2</v>
       </c>
@@ -7517,7 +7717,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S112" t="inlineStr"/>
@@ -7574,7 +7774,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S113" t="inlineStr"/>
@@ -7637,7 +7837,11 @@
         <v>0.3602093756</v>
       </c>
       <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S114" t="n">
         <v>0</v>
       </c>
@@ -7700,7 +7904,11 @@
         <v>0.3602093756</v>
       </c>
       <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S115" t="n">
         <v>7</v>
       </c>
@@ -7757,7 +7965,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S116" t="inlineStr"/>
@@ -7820,7 +8028,11 @@
         <v>0.1583333333</v>
       </c>
       <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S117" t="n">
         <v>10</v>
       </c>
@@ -7883,7 +8095,11 @@
         <v>0.07239583333000001</v>
       </c>
       <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S118" t="n">
         <v>6</v>
       </c>
@@ -7940,7 +8156,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S119" t="inlineStr"/>
@@ -7997,7 +8213,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S120" t="inlineStr"/>
@@ -8060,8 +8276,10 @@
         <v>0.241509434</v>
       </c>
       <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="n">
-        <v>52</v>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -8123,7 +8341,7 @@
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S122" t="n">
@@ -8188,7 +8406,11 @@
         <v>0.2053</v>
       </c>
       <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S123" t="n">
         <v>0</v>
       </c>
@@ -8251,8 +8473,10 @@
         <v>0.2053</v>
       </c>
       <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="n">
-        <v>139</v>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S124" t="n">
         <v>2</v>
@@ -8310,7 +8534,7 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S125" t="inlineStr"/>
@@ -8373,8 +8597,10 @@
         <v>0.2202564103</v>
       </c>
       <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="n">
-        <v>575</v>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S126" t="n">
         <v>13</v>
@@ -8438,7 +8664,11 @@
         <v>0.07829736211</v>
       </c>
       <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S127" t="n">
         <v>33</v>
       </c>
@@ -8501,7 +8731,11 @@
         <v>0.06606714628</v>
       </c>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S128" t="n">
         <v>17</v>
       </c>
@@ -8564,8 +8798,10 @@
         <v>0.0829</v>
       </c>
       <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="n">
-        <v>1715</v>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S129" t="n">
         <v>0</v>
@@ -8629,7 +8865,11 @@
         <v>0.2143389199</v>
       </c>
       <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S130" t="n">
         <v>19</v>
       </c>
@@ -8692,8 +8932,10 @@
         <v>0.1671</v>
       </c>
       <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="n">
-        <v>14</v>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S131" t="inlineStr"/>
     </row>
@@ -8753,7 +8995,11 @@
       </c>
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -8814,7 +9060,11 @@
         <v>0.3068</v>
       </c>
       <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S133" t="n">
         <v>3</v>
       </c>
@@ -8877,7 +9127,11 @@
         <v>0.1970204842</v>
       </c>
       <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S134" t="n">
         <v>10</v>
       </c>
@@ -8938,7 +9192,11 @@
       </c>
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -8997,7 +9255,11 @@
       </c>
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -9058,7 +9320,11 @@
         <v>0.3815607581</v>
       </c>
       <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S137" t="n">
         <v>6</v>
       </c>
@@ -9115,7 +9381,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S138" t="inlineStr"/>
@@ -9172,7 +9438,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S139" t="inlineStr"/>
@@ -9229,7 +9495,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S140" t="inlineStr"/>
@@ -9292,7 +9558,11 @@
         <v>0.2649386845</v>
       </c>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S141" t="n">
         <v>2</v>
       </c>
@@ -9349,7 +9619,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S142" t="inlineStr"/>
@@ -9412,7 +9682,11 @@
         <v>0.1473467113</v>
       </c>
       <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S143" t="n">
         <v>5</v>
       </c>
@@ -9475,8 +9749,10 @@
         <v>0.1670646766</v>
       </c>
       <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="n">
-        <v>215</v>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S144" t="n">
         <v>8</v>
@@ -9534,7 +9810,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S145" t="inlineStr"/>
@@ -9591,7 +9867,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S146" t="inlineStr"/>
@@ -9648,7 +9924,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S147" t="inlineStr"/>
@@ -9705,7 +9981,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S148" t="inlineStr"/>
@@ -9768,7 +10044,11 @@
         <v>-0.005197132616</v>
       </c>
       <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S149" t="n">
         <v>3</v>
       </c>
@@ -9831,8 +10111,10 @@
         <v>0.1699628598</v>
       </c>
       <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="n">
-        <v>783</v>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
       </c>
       <c r="S150" t="n">
         <v>11</v>
@@ -9896,7 +10178,11 @@
         <v>0.06241545894</v>
       </c>
       <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -9957,7 +10243,11 @@
         <v>0.119004676</v>
       </c>
       <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S152" t="n">
         <v>2</v>
       </c>
@@ -10020,7 +10310,11 @@
         <v>-0.05090216755</v>
       </c>
       <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S153" t="n">
         <v>33</v>
       </c>
@@ -10061,7 +10355,7 @@
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S154" t="inlineStr"/>
@@ -10098,7 +10392,7 @@
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S155" t="inlineStr"/>
@@ -10177,7 +10471,7 @@
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S156" t="n">
@@ -10260,7 +10554,11 @@
         </is>
       </c>
       <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S157" t="n">
         <v>7</v>
       </c>
@@ -10305,7 +10603,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>商品编号为空</t>
         </is>
       </c>
       <c r="S158" t="inlineStr"/>
@@ -10364,7 +10662,11 @@
         <v>0.2004</v>
       </c>
       <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -10421,7 +10723,11 @@
         <v>0.1991</v>
       </c>
       <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -10478,7 +10784,11 @@
         <v>0.2074</v>
       </c>
       <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S161" t="n">
         <v>5</v>
       </c>
@@ -10537,7 +10847,11 @@
         <v>0.1174</v>
       </c>
       <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S162" t="n">
         <v>1</v>
       </c>
@@ -10596,7 +10910,11 @@
         <v>0.1572</v>
       </c>
       <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S163" t="inlineStr"/>
     </row>
     <row r="164">
@@ -10653,7 +10971,11 @@
         <v>0.1282</v>
       </c>
       <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>未找到库存信息</t>
+        </is>
+      </c>
       <c r="S164" t="n">
         <v>1</v>
       </c>
